--- a/biology/Zoologie/Cybaeus_okumurai/Cybaeus_okumurai.xlsx
+++ b/biology/Zoologie/Cybaeus_okumurai/Cybaeus_okumurai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cybaeus okumurai est une espèce d'araignées aranéomorphes de la famille des Cybaeidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cybaeus okumurai est une espèce d'araignées aranéomorphes de la famille des Cybaeidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'archipel Nansei au Japon[1]. Elle se rencontre sur Tanega-shima[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'archipel Nansei au Japon. Elle se rencontre sur Tanega-shima.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 2,96 mm de long sur 2,16 mm et l'abdomen 2,64 mm de long sur 1,94 mm et la carapace de la femelle paratype mesure 2,71 mm de long sur 1,85 mm et l'abdomen 3,18 mm de long sur 2,34 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 2,96 mm de long sur 2,16 mm et l'abdomen 2,64 mm de long sur 1,94 mm et la carapace de la femelle paratype mesure 2,71 mm de long sur 1,85 mm et l'abdomen 3,18 mm de long sur 2,34 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Ken-ichi Okumura[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Ken-ichi Okumura.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ihara, Koike &amp; Nakano, 2021 : « Integrative taxonomy reveals multiple lineages of the spider genus Cybaeus endemic to the Ryukyu Islands, Japan (Arachnida: Araneae: Cybaeidae). » Invertebrate Systematics, vol. 35, no 2, p. 216-254.</t>
         </is>
